--- a/Warehouse/testing/CC/judgement_logs_run4o.xlsx
+++ b/Warehouse/testing/CC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" has been selected for the movie shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has not been made.
+MSG: Based on the conversation, the committee has decided to involve the rest of the PTA for input and has not come to a definitive decision about the movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
+MSG: The rights for "Oppenheimer" have been successfully acquired for the upcoming screening.
 </t>
         </is>
       </c>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no consensus was reached on which movie to show on Friday.
+MSG: The decision has been successfully recorded for showing "Barbie".
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie for Friday was reached.
+MSG: The decision about which movie to show on Friday could not be finalized, leading to no selection being made.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Barbie" is the movie selected to acquire rights for the screening.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -594,13 +594,13 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No movie was selected in this meeting.
+MSG: I have successfully recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has ended without a consensus being reached.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded with no movie selected for Friday.
+MSG: The decision about which movie to show on Friday could not be made, so no selection will be made at this time.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected in this meeting.
+MSG: The conversation has concluded without a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
